--- a/Project Outputs for Test Board ESP32-S3 Mini/BOM/Bill of Materials-Test Board ESP32-S3 Mini.xlsx
+++ b/Project Outputs for Test Board ESP32-S3 Mini/BOM/Bill of Materials-Test Board ESP32-S3 Mini.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\localadmin\Documents\Altium\Projects\Test Board ESP32-S3 Mini\Project Outputs for Test Board ESP32-S3 Mini\BOM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BC149B00-8024-4FB3-ADC4-0DEFA648B188}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{426A3217-B128-40C2-9D72-7CBA7D72BAD7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="780" windowWidth="17010" windowHeight="9765" xr2:uid="{B58CC856-F39D-452A-BD1E-AA42DD35D5C6}"/>
+    <workbookView xWindow="2730" yWindow="2730" windowWidth="57600" windowHeight="15345" xr2:uid="{0F2E6B45-362B-487A-990D-BEE9AF112AA3}"/>
   </bookViews>
   <sheets>
     <sheet name="Bill of Materials-Test Board ES" sheetId="1" r:id="rId1"/>
@@ -98,7 +98,7 @@
     <t>C4, C5, C12, C15, C16, C18</t>
   </si>
   <si>
-    <t>C307331, [NoParam]</t>
+    <t>C307331</t>
   </si>
   <si>
     <t>C 1uF Tant J</t>
@@ -122,7 +122,7 @@
     <t>Ceramic capacitor SMD-0402 10nF /50V X7R# K +-10%, Samsung, RoHS CL05B103KB5NNNC</t>
   </si>
   <si>
-    <t>C7, C17</t>
+    <t>C7, C17, C20, C21</t>
   </si>
   <si>
     <t>C15195</t>
@@ -825,7 +825,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{683BDF8F-EBF9-40E8-BDD6-F118FD8E87F0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3EAE7BF-1FE7-4119-8869-CDB5AF4083C1}">
   <dimension ref="A1:G29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -968,7 +968,7 @@
         <v>25</v>
       </c>
       <c r="F6" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G6" s="2" t="s">
         <v>28</v>
